--- a/reports/info.xlsx
+++ b/reports/info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,134 +465,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Tata Consultancy Services Limited (TCS.NS)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3,888.55</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3,837.30 - 3,915.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3,156.00 - 4,254.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>125.77</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bharat Heavy Electricals Limited (BHEL.NS)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>285.00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>275.35 - 286.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>83.30 - 322.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>356.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Steel Authority of India Limited (SAIL.NS)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>152.50</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>145.60 - 153.85</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>81.80 - 175.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ITC Limited (ITC.NS)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>438.50</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>431.10 - 441.65</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>399.35 - 499.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16.38</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
